--- a/WI 24/SE 160A/MATLAB PROJECT 2/final/Wing_Analysis_Input.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 2/final/Wing_Analysis_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkosm\Desktop\SE160A_MATLAB_Wing_Analysis (2024)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8975263E-8D8E-4C2B-9291-80D8CEE82A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2336E6DC-6A47-4639-9019-6AA35F070211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15100" yWindow="-12270" windowWidth="19420" windowHeight="11620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2645,8 +2645,8 @@
   </sheetPr>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2961,7 +2961,7 @@
         <v>110</v>
       </c>
       <c r="G23" s="77">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H23" s="90" t="s">
         <v>18</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="98">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I31" s="78">
         <v>100</v>
@@ -3130,16 +3130,16 @@
         <v>100</v>
       </c>
       <c r="G32" s="81">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H32" s="81">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I32" s="81">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="J32" s="81">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K32" s="82" t="s">
         <v>101</v>
